--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,7 +23,7 @@
     <sheet name="定投策略" sheetId="7" r:id="rId9"/>
     <sheet name="谷歌股票" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="339">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4261,6 +4261,157 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>re'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷交流工作，跟晏睿哲视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao'liu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gen'yan'rui'zhe</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器械课正常上，但是不要拉伸自己的腿过分时间</t>
+    <rPh sb="0" eb="1">
+      <t>qi'xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'chan'sgang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>la'shen</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>guo'fen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻炼的时候还是应该尽量用力，并且应该每个小时都看好时间让自己有一个数反思一下自己干了什么</t>
+    <rPh sb="0" eb="1">
+      <t>duan'lain'de'shi'hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ying'gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin'liang'yong'li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ying'agi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xiao'hsi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kan'hao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>rnag'zi'ji</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>you'yi'ge</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fan'si</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>gan'le</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>shen'me</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300芒格</t>
+    <rPh sb="0" eb="3">
+      <t>neng'li'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷谈工作</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身两节课效果其实没有想的那么好</t>
+    <rPh sb="0" eb="333">
+      <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己今天懈怠得不行，总是想着什么事情“尽快”的结果就是很可能再也不会去做了，就做一点才是最好的想法</t>
+    <rPh sb="0" eb="766">
+      <t>zi'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4268,7 +4419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -4432,6 +4583,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4702,9 +4856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5080,10 +5234,40 @@
       <c r="A19" s="3">
         <v>20180118</v>
       </c>
+      <c r="B19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4580</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>20180119</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4389</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7495,6 +7679,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="11" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="比特币" sheetId="5" r:id="rId7"/>
     <sheet name="A股" sheetId="6" r:id="rId8"/>
     <sheet name="定投策略" sheetId="7" r:id="rId9"/>
-    <sheet name="谷歌股票" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="340">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1582,18 +1582,6 @@
     <t>学费返还</t>
   </si>
   <si>
-    <t>Google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G-Chg&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1200李笑来</t>
     <rPh sb="4" eb="5">
       <t>li'xiao'lai</t>
@@ -4403,15 +4391,43 @@
   </si>
   <si>
     <t>健身两节课效果其实没有想的那么好</t>
-    <rPh sb="0" eb="333">
+    <rPh sb="0" eb="16">
       <t>zi'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自己今天懈怠得不行，总是想着什么事情“尽快”的结果就是很可能再也不会去做了，就做一点才是最好的想法</t>
-    <rPh sb="0" eb="766">
+    <rPh sb="0" eb="49">
       <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000成甲</t>
+    <rPh sb="0" eb="2">
+      <t>cheng'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父母视频跟韩秋谈买房</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏彻底结束删除，自觉懂得了深层的灵魂</t>
+    <rPh sb="0" eb="19">
+      <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买房也是一件重要的事情开始就该琢磨起来了不然等什么呢</t>
+    <rPh sb="0" eb="4">
+      <t>mai'fang'ye'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4419,7 +4435,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -4853,12 +4869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4872,22 +4888,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4895,19 +4911,19 @@
         <v>20180101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C2" s="3">
         <v>5779</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4915,19 +4931,19 @@
         <v>20180102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3">
         <v>3529</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4935,19 +4951,19 @@
         <v>20180103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3">
         <v>3256</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4955,19 +4971,19 @@
         <v>20180104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1">
         <v>3450</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4975,19 +4991,19 @@
         <v>20180105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C6" s="3">
         <v>3351</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4995,19 +5011,19 @@
         <v>20180106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C7" s="3">
         <v>3298</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5015,19 +5031,19 @@
         <v>20180107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3">
         <v>3638</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5035,19 +5051,19 @@
         <v>20180108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C9" s="3">
         <v>3968</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5055,19 +5071,19 @@
         <v>20180109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C10" s="3">
         <v>3193</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5075,19 +5091,19 @@
         <v>20180110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C11" s="3">
         <v>4138</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5095,19 +5111,19 @@
         <v>20180111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C12" s="3">
         <v>3535</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5115,19 +5131,19 @@
         <v>20180112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C13" s="3">
         <v>4554</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5135,19 +5151,19 @@
         <v>20180113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C14" s="3">
         <v>7279</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5155,19 +5171,19 @@
         <v>20180114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C15" s="3">
         <v>4680</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5175,19 +5191,19 @@
         <v>20180115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C16" s="3">
         <v>4776</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5195,19 +5211,19 @@
         <v>20180116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C17" s="3">
         <v>5714</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5215,19 +5231,19 @@
         <v>20180117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C18" s="3">
         <v>3295</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5235,19 +5251,19 @@
         <v>20180118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C19" s="3">
         <v>4580</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5255,24 +5271,39 @@
         <v>20180119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C20" s="3">
         <v>4389</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20180120</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3753</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5552,49 +5583,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>20171212</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1045.3900000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
@@ -5620,22 +5610,22 @@
         <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>112</v>
@@ -6307,7 +6297,7 @@
         <v>20171212</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C34" s="3">
         <v>1981</v>
@@ -6316,13 +6306,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -6342,7 +6332,7 @@
         <v>51</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
@@ -6362,13 +6352,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -6385,10 +6375,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -6396,7 +6386,7 @@
         <v>20171216</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C38" s="3">
         <v>1521</v>
@@ -6408,7 +6398,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>117</v>
@@ -6428,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -6442,7 +6432,7 @@
         <v>20171218</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C40" s="3">
         <v>2881</v>
@@ -6451,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -6465,7 +6455,7 @@
         <v>20171219</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C41" s="3">
         <v>1714</v>
@@ -6474,13 +6464,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -6488,7 +6478,7 @@
         <v>20171220</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C42" s="3">
         <v>3898</v>
@@ -6497,13 +6487,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -6511,7 +6501,7 @@
         <v>20171221</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C43" s="3">
         <v>4301</v>
@@ -6520,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -6531,7 +6521,7 @@
         <v>20171222</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C44" s="3">
         <v>3107</v>
@@ -6540,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -6551,7 +6541,7 @@
         <v>20171223</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C45" s="3">
         <v>1368</v>
@@ -6560,13 +6550,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -6583,13 +6573,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -6606,13 +6596,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -6632,13 +6622,13 @@
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -6646,7 +6636,7 @@
         <v>20171227</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C49" s="3">
         <v>2533</v>
@@ -6658,13 +6648,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -6672,7 +6662,7 @@
         <v>20171228</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C50" s="3">
         <v>3674</v>
@@ -6687,10 +6677,10 @@
         <v>51</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -6698,7 +6688,7 @@
         <v>20171229</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C51" s="3">
         <v>6646</v>
@@ -6710,13 +6700,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -6724,7 +6714,7 @@
         <v>20171230</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C52" s="3">
         <v>2057</v>
@@ -6736,13 +6726,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -6750,7 +6740,7 @@
         <v>20171231</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C53" s="3">
         <v>3936</v>
@@ -6762,13 +6752,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6779,7 +6769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -7684,7 +7674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -8654,7 +8644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8926,7 +8916,7 @@
         <v>180109</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C19" s="12">
         <v>10000</v>
@@ -8943,7 +8933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9013,16 +9003,16 @@
         <v>180109</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C5" s="9">
         <v>65000</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -9032,7 +9022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9190,7 +9180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9314,7 +9304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="347">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4428,6 +4428,55 @@
     <t>买房也是一件重要的事情开始就该琢磨起来了不然等什么呢</t>
     <rPh sb="0" eb="4">
       <t>mai'fang'ye'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000能力圈</t>
+    <rPh sb="0" eb="3">
+      <t>neng'li'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷聊天</t>
+    <rPh sb="0" eb="5">
+      <t>shen'shi'zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课并且坚持自己的运动，也开始写论文了，似乎自己的注意力开始收敛起来</t>
+    <rPh sb="0" eb="2">
+      <t>shang'ek</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须多睡觉少纵欲，自己的身体在锻炼的时候不能有全新状态时不行的</t>
+    <rPh sb="0" eb="31">
+      <t>n'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000能力圈</t>
+    <rPh sb="0" eb="1">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功开始论文和算法的道路</t>
+    <rPh sb="0" eb="4">
+      <t>cheng'gong'kai'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点不敢开始的感觉，但是成长从来不都是自己过去但是继续进步的结果么，自己相信也好不信也好，先把考试考好获得算法高分让自己安心下来就好</t>
+    <rPh sb="0" eb="66">
+      <t>zi'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4873,8 +4922,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5310,10 +5359,40 @@
       <c r="A22" s="3">
         <v>20180121</v>
       </c>
+      <c r="B22" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3713</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20180122</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3110</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -23,7 +23,6 @@
     <sheet name="定投策略" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="351">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4476,6 +4475,34 @@
   <si>
     <t>有点不敢开始的感觉，但是成长从来不都是自己过去但是继续进步的结果么，自己相信也好不信也好，先把考试考好获得算法高分让自己安心下来就好</t>
     <rPh sb="0" eb="66">
+      <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000能力圈</t>
+    <rPh sb="0" eb="3">
+      <t>nneg'li'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改签车票跟父母交流</t>
+    <rPh sb="0" eb="269">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身发现效果还是非常明显的，进步也是看得到的，这就是跟教练联系的好处</t>
+    <rPh sb="0" eb="2">
+      <t>jian'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己不应在任何情况下断了自己的输入，真的没有输出全是自己心里面的想法本身就是不应该的</t>
+    <rPh sb="0" eb="2">
       <t>zi'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4923,7 +4950,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5399,6 +5426,21 @@
       <c r="A24" s="3">
         <v>20180123</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4399</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -5656,6 +5698,11 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate>
+    <dataRefs count="1">
+      <dataRef ref="C2:C24" sheet="2018打卡"/>
+    </dataRefs>
+  </dataConsolidate>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -23,6 +23,7 @@
     <sheet name="定投策略" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="355">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4488,7 +4489,7 @@
   </si>
   <si>
     <t>改签车票跟父母交流</t>
-    <rPh sb="0" eb="269">
+    <rPh sb="0" eb="9">
       <t>gen'xiu'ting</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4504,6 +4505,34 @@
     <t>自己不应在任何情况下断了自己的输入，真的没有输出全是自己心里面的想法本身就是不应该的</t>
     <rPh sb="0" eb="2">
       <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0900普世智慧</t>
+    <rPh sb="0" eb="4">
+      <t>pu'shi'zhi'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父母汇报收益</t>
+    <rPh sb="0" eb="3">
+      <t>gen'fu'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理思维模型算法等等内容</t>
+    <rPh sb="0" eb="12">
+      <t>yue'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天就该围绕思维模型去建设思考的方式，其实不少都可以打开继续细分，对于我而言还是需要写作出实例+交互内容</t>
+    <rPh sb="0" eb="2">
+      <t>mei'tian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4949,8 +4978,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5445,6 +5474,18 @@
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>20180124</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5714,7 +5755,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -23,7 +23,6 @@
     <sheet name="定投策略" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="360">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4533,6 +4532,41 @@
     <t>每天就该围绕思维模型去建设思考的方式，其实不少都可以打开继续细分，对于我而言还是需要写作出实例+交互内容</t>
     <rPh sb="0" eb="2">
       <t>mei'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0900阳志平</t>
+    <rPh sb="0" eb="4">
+      <t>pu'shi'zhi'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给修婷买衣服</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天继续健身也看了阳志平老师的书并且努力找到实践的点</t>
+    <rPh sb="0" eb="2">
+      <t>jin'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己还是没有写论文，难道就得一点一点套出来内容才行么</t>
+    <rPh sb="0" eb="1">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷交流工作要不要留在北京的事情</t>
+    <rPh sb="0" eb="3">
+      <t>gen'xiu'ting</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4978,8 +5012,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5478,6 +5512,9 @@
       <c r="B25" s="3" t="s">
         <v>351</v>
       </c>
+      <c r="C25" s="3">
+        <v>3266</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>352</v>
       </c>
@@ -5492,10 +5529,31 @@
       <c r="A26" s="3">
         <v>20180125</v>
       </c>
+      <c r="B26" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3205</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>20180126</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4677</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -23,6 +23,7 @@
     <sheet name="定投策略" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="368">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4567,6 +4568,62 @@
     <t>跟修婷交流工作要不要留在北京的事情</t>
     <rPh sb="0" eb="3">
       <t>gen'xiu'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷谈性格的事情</t>
+    <rPh sb="0" eb="3">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续健身锻炼并且看了建党伟业</t>
+    <rPh sb="0" eb="2">
+      <t>ji'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不应该大冷天早回去，应该看电影啊</t>
+    <rPh sb="0" eb="3">
+      <t>bu'ying'gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法内容</t>
+    <rPh sb="0" eb="4">
+      <t>xian'zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修婷说服了她的父母留在北京，我也不知道是不是好事，只是我应该尊重她；此外自己不应该纵欲就是</t>
+    <rPh sb="0" eb="45">
+      <t>xiu'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父母、修婷视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译部分内容让自己能够有一个写作的空间</t>
+    <rPh sb="0" eb="356">
+      <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己只能做好有限的几件事情，算法什么的应该尽量减少，论文增加时间</t>
+    <rPh sb="0" eb="2">
+      <t>z'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5011,9 +5068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5549,21 +5606,60 @@
       <c r="A27" s="3">
         <v>20180126</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="C27" s="3">
         <v>4677</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>359</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>20180127</v>
       </c>
+      <c r="B28" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3119</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20180128</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3587</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="372">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -4615,7 +4615,7 @@
   </si>
   <si>
     <t>翻译部分内容让自己能够有一个写作的空间</t>
-    <rPh sb="0" eb="356">
+    <rPh sb="0" eb="19">
       <t>zi'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4624,6 +4624,34 @@
     <t>自己只能做好有限的几件事情，算法什么的应该尽量减少，论文增加时间</t>
     <rPh sb="0" eb="2">
       <t>z'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷音频</t>
+    <rPh sb="0" eb="3">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0900普世智慧</t>
+    <rPh sb="0" eb="4">
+      <t>pu'shi'zhi'hiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身继续，下载螺丝钉的文章准备分类加工</t>
+    <rPh sb="0" eb="2">
+      <t>jian'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己还是没写论文啊！怎么自己这样，以后按照做事只做重要事情来看现在就是写论文的时候别的别想了！</t>
+    <rPh sb="0" eb="2">
+      <t>zi'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5069,8 +5097,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5665,6 +5693,21 @@
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>20180129</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3948</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
+    <workbookView xWindow="380" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="272">
   <si>
     <t>建设工期</t>
     <rPh sb="0" eb="1">
@@ -4215,6 +4215,27 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>liao'tian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500能力圈</t>
+    <rPh sb="0" eb="2">
+      <t>gai'nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看VSI系列</t>
+    <rPh sb="0" eb="1">
+      <t>kan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看牛津系列是自己起步的最关键的开始，总得要有一个自己的起步点</t>
+    <rPh sb="0" eb="461">
+      <t>zi'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4623,11 +4644,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" activeCellId="1" sqref="G7 M25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" customWidth="1"/>
+    <col min="6" max="6" width="88.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -5233,11 +5259,21 @@
       <c r="A31" s="2">
         <v>20180130</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3299</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -16,6 +16,7 @@
     <sheet name="2017打卡" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2260,16 +2261,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>奉献亲友</t>
-    <rPh sb="0" eb="1">
-      <t>feng'xian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qin'you</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
@@ -4234,8 +4225,15 @@
   </si>
   <si>
     <t>看牛津系列是自己起步的最关键的开始，总得要有一个自己的起步点</t>
-    <rPh sb="0" eb="461">
+    <rPh sb="0" eb="30">
       <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系亲友</t>
+    <rPh sb="0" eb="1">
+      <t>feng'xianqin'you</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4644,7 +4642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -5260,7 +5258,7 @@
         <v>20180130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2">
         <v>3299</v>
@@ -5269,10 +5267,10 @@
         <v>76</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5726,10 +5724,19 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H53"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -5754,7 +5761,7 @@
         <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5762,7 +5769,7 @@
         <v>20171110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2">
         <v>2131</v>
@@ -5772,10 +5779,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5784,7 +5791,7 @@
         <v>20171111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2">
         <v>2422</v>
@@ -5794,10 +5801,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -5806,7 +5813,7 @@
         <v>20171112</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -5816,10 +5823,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -5828,7 +5835,7 @@
         <v>20171113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2">
         <v>303</v>
@@ -5838,10 +5845,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -5850,7 +5857,7 @@
         <v>20171114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2">
         <v>655</v>
@@ -5860,13 +5867,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5874,7 +5881,7 @@
         <v>20171115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2">
         <v>2286</v>
@@ -5884,10 +5891,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -5896,7 +5903,7 @@
         <v>20171116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2">
         <v>1754</v>
@@ -5906,10 +5913,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -5918,7 +5925,7 @@
         <v>20171117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2">
         <v>993</v>
@@ -5928,10 +5935,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -5940,7 +5947,7 @@
         <v>20171118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2">
         <v>1721</v>
@@ -5950,10 +5957,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -5962,7 +5969,7 @@
         <v>20171119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2">
         <v>1361</v>
@@ -5972,10 +5979,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -5984,7 +5991,7 @@
         <v>20171120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2">
         <v>2142</v>
@@ -5994,10 +6001,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -6006,7 +6013,7 @@
         <v>20171121</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2">
         <v>1139</v>
@@ -6016,10 +6023,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -6028,7 +6035,7 @@
         <v>20171122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2">
         <v>1383</v>
@@ -6038,10 +6045,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -6050,7 +6057,7 @@
         <v>20171123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2">
         <v>1171</v>
@@ -6060,10 +6067,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -6072,7 +6079,7 @@
         <v>20171124</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -6082,13 +6089,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6096,7 +6103,7 @@
         <v>20171125</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2">
         <v>833</v>
@@ -6106,10 +6113,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -6118,7 +6125,7 @@
         <v>20171126</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -6128,13 +6135,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6142,7 +6149,7 @@
         <v>20171127</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2">
         <v>2879</v>
@@ -6152,10 +6159,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -6164,7 +6171,7 @@
         <v>20171128</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -6174,10 +6181,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -6186,7 +6193,7 @@
         <v>20171129</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -6196,10 +6203,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -6208,7 +6215,7 @@
         <v>20171130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2">
         <v>48</v>
@@ -6218,13 +6225,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6232,7 +6239,7 @@
         <v>20171201</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="2">
         <v>838</v>
@@ -6242,10 +6249,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -6254,7 +6261,7 @@
         <v>20171202</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2">
         <v>1410</v>
@@ -6264,10 +6271,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -6276,7 +6283,7 @@
         <v>20171203</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="2">
         <v>1269</v>
@@ -6286,13 +6293,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6300,7 +6307,7 @@
         <v>20171204</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="2">
         <v>1605</v>
@@ -6310,10 +6317,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -6322,7 +6329,7 @@
         <v>20171205</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="2">
         <v>4483</v>
@@ -6332,10 +6339,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -6344,7 +6351,7 @@
         <v>20171206</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="2">
         <v>2420</v>
@@ -6354,10 +6361,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -6366,7 +6373,7 @@
         <v>20171207</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2">
         <v>2176</v>
@@ -6376,10 +6383,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -6388,7 +6395,7 @@
         <v>20171208</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2">
         <v>1365</v>
@@ -6398,10 +6405,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -6410,7 +6417,7 @@
         <v>20171209</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="2">
         <v>3143</v>
@@ -6420,10 +6427,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -6432,7 +6439,7 @@
         <v>20171210</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2">
         <v>2000</v>
@@ -6442,13 +6449,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6456,7 +6463,7 @@
         <v>20171211</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33" s="2">
         <v>2608</v>
@@ -6466,13 +6473,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6480,7 +6487,7 @@
         <v>20171212</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="2">
         <v>1981</v>
@@ -6490,13 +6497,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6504,7 +6511,7 @@
         <v>20171213</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2">
         <v>1979</v>
@@ -6514,13 +6521,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6528,7 +6535,7 @@
         <v>20171214</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -6538,13 +6545,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6552,7 +6559,7 @@
         <v>20171215</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" s="2">
         <v>1575</v>
@@ -6562,10 +6569,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -6574,7 +6581,7 @@
         <v>20171216</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" s="2">
         <v>1521</v>
@@ -6584,13 +6591,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6598,7 +6605,7 @@
         <v>20171217</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2">
         <v>2142</v>
@@ -6608,13 +6615,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6622,7 +6629,7 @@
         <v>20171218</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C40" s="2">
         <v>2881</v>
@@ -6632,13 +6639,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6646,7 +6653,7 @@
         <v>20171219</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="2">
         <v>1714</v>
@@ -6656,13 +6663,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6670,7 +6677,7 @@
         <v>20171220</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42" s="2">
         <v>3898</v>
@@ -6680,13 +6687,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6694,7 +6701,7 @@
         <v>20171221</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C43" s="2">
         <v>4301</v>
@@ -6704,10 +6711,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -6726,10 +6733,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -6738,7 +6745,7 @@
         <v>20171223</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C45" s="2">
         <v>1368</v>
@@ -6748,13 +6755,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6762,7 +6769,7 @@
         <v>20171224</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2">
         <v>2119</v>
@@ -6772,13 +6779,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6786,7 +6793,7 @@
         <v>20171225</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2">
         <v>2642</v>
@@ -6796,13 +6803,13 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6810,7 +6817,7 @@
         <v>20171226</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="2">
         <v>3305</v>
@@ -6822,13 +6829,13 @@
         <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6836,7 +6843,7 @@
         <v>20171227</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C49" s="2">
         <v>2533</v>
@@ -6848,13 +6855,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6874,13 +6881,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6888,7 +6895,7 @@
         <v>20171229</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C51" s="2">
         <v>6646</v>
@@ -6900,13 +6907,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6914,7 +6921,7 @@
         <v>20171230</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" s="2">
         <v>2057</v>
@@ -6926,13 +6933,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6940,7 +6947,7 @@
         <v>20171231</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C53" s="2">
         <v>3936</v>
@@ -6952,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
+    <workbookView xWindow="340" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
     <sheet name="2017打卡" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4643,7 +4642,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5278,7 +5277,9 @@
         <v>20180131</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>3449</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -5288,7 +5289,9 @@
         <v>20180201</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>3274</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -5298,7 +5301,9 @@
         <v>20180202</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>3126</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>

--- a/1持续耕耘/一五耕作收成.xlsx
+++ b/1持续耕耘/一五耕作收成.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
     <sheet name="2017打卡" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,17 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="272">
-  <si>
-    <t>建设工期</t>
-    <rPh sb="0" eb="1">
-      <t>jian'she</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong'qi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="276">
   <si>
     <t>认知护城河</t>
     <rPh sb="0" eb="1">
@@ -47,51 +37,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自由耕作</t>
-    <rPh sb="0" eb="1">
-      <t>zi'you</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>geng'zuo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
       <t>lian'xi</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>qin'you</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>读书健身定投耕作</t>
-    <rPh sb="0" eb="1">
-      <t>du'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jian'shen</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ding'tou</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>geng'zuo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反思工程结果</t>
-    <rPh sb="0" eb="1">
-      <t>fan'si</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong'cheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie'guo</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4233,6 +4184,80 @@
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
       <t>feng'xianqin'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反思工程</t>
+    <rPh sb="0" eb="1">
+      <t>fan'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入时间</t>
+    <rPh sb="0" eb="2">
+      <t>tou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间定投</t>
+    <rPh sb="0" eb="1">
+      <t>du'shu</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ding'tou</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡后收入</t>
+    <rPh sb="0" eb="1">
+      <t>zi'you</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法复习</t>
+    <rPh sb="0" eb="28">
+      <t>ji'suan'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文复习</t>
+    <rPh sb="0" eb="2">
+      <t>zuo'wen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2300能力圈</t>
+    <rPh sb="0" eb="3">
+      <t>neng'li'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100能力圈</t>
+    <rPh sb="0" eb="3">
+      <t>neng'li'quan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4639,726 +4664,835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="51.33203125" customWidth="1"/>
+    <col min="3" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="88.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>20180101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>5779</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>20180102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>3529</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>20180103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>3256</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>20180104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
         <v>3450</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>20180105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>3351</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>20180106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>3298</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>20180107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>3638</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>20180108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>3968</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>20180109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>3193</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>20180110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>4138</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>20180111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>3535</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>20180112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2">
         <v>4554</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>20180113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2">
         <v>7279</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>20180114</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2">
         <v>4680</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>20180115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2">
         <v>4776</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>20180116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2">
         <v>5714</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>20180117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2">
         <v>3295</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>20180118</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2">
         <v>4580</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>20180119</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2">
         <v>4389</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20180120</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2">
         <v>3753</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>20180121</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2">
         <v>3713</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>20180122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2">
         <v>3110</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>20180123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2">
         <v>4399</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>89</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>20180124</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2">
         <v>3266</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>20180125</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2">
         <v>3205</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>97</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>20180126</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2">
         <v>4677</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>20180127</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2">
         <v>3119</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>20180128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2">
         <v>3587</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>20180129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C30" s="2">
         <v>3948</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>20180130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2">
         <v>3299</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>266</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>20180131</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="C32" s="2">
         <v>3449</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>20180201</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="C33" s="2">
         <v>3274</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>20180202</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="C34" s="2">
         <v>3126</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>20180203</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3318</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>20180204</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3246</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>20180205</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3138</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>20180206</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3535</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>20180207</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>20180208</v>
       </c>
@@ -5367,8 +5501,10 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>20180209</v>
       </c>
@@ -5377,8 +5513,10 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>20180210</v>
       </c>
@@ -5387,8 +5525,10 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>20180211</v>
       </c>
@@ -5397,8 +5537,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>20180212</v>
       </c>
@@ -5407,8 +5549,10 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>20180213</v>
       </c>
@@ -5417,8 +5561,10 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>20180214</v>
       </c>
@@ -5427,8 +5573,10 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>20180215</v>
       </c>
@@ -5437,8 +5585,10 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>20180216</v>
       </c>
@@ -5447,8 +5597,10 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>20180217</v>
       </c>
@@ -5457,8 +5609,10 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>20180218</v>
       </c>
@@ -5467,8 +5621,10 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>20180219</v>
       </c>
@@ -5477,8 +5633,10 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>20180220</v>
       </c>
@@ -5487,8 +5645,10 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>20180221</v>
       </c>
@@ -5497,8 +5657,10 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>20180222</v>
       </c>
@@ -5507,8 +5669,10 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>20180223</v>
       </c>
@@ -5517,8 +5681,10 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>20180224</v>
       </c>
@@ -5527,8 +5693,10 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>20180225</v>
       </c>
@@ -5537,8 +5705,10 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>20180226</v>
       </c>
@@ -5547,8 +5717,10 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>20180227</v>
       </c>
@@ -5557,8 +5729,10 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>20180228</v>
       </c>
@@ -5567,8 +5741,10 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>20180301</v>
       </c>
@@ -5577,8 +5753,10 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>20180302</v>
       </c>
@@ -5587,8 +5765,10 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>20180303</v>
       </c>
@@ -5597,8 +5777,10 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>20180304</v>
       </c>
@@ -5607,8 +5789,10 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>20180305</v>
       </c>
@@ -5617,8 +5801,10 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>20180306</v>
       </c>
@@ -5627,8 +5813,10 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>20180307</v>
       </c>
@@ -5637,8 +5825,10 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>20180308</v>
       </c>
@@ -5647,8 +5837,10 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>20180309</v>
       </c>
@@ -5657,8 +5849,10 @@
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>20180310</v>
       </c>
@@ -5667,8 +5861,10 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>20180311</v>
       </c>
@@ -5677,8 +5873,10 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>20180312</v>
       </c>
@@ -5687,8 +5885,10 @@
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>20180313</v>
       </c>
@@ -5697,8 +5897,10 @@
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>20180314</v>
       </c>
@@ -5707,8 +5909,10 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>20180315</v>
       </c>
@@ -5717,6 +5921,8 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5726,10 +5932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E464E-4FA3-B04D-BEB2-43E9886F01AC}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5745,28 +5951,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5774,7 +5980,7 @@
         <v>20171110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2">
         <v>2131</v>
@@ -5784,10 +5990,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5796,7 +6002,7 @@
         <v>20171111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2">
         <v>2422</v>
@@ -5806,10 +6012,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -5818,7 +6024,7 @@
         <v>20171112</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -5828,10 +6034,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -5840,7 +6046,7 @@
         <v>20171113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2">
         <v>303</v>
@@ -5850,10 +6056,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -5862,7 +6068,7 @@
         <v>20171114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2">
         <v>655</v>
@@ -5872,13 +6078,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5886,7 +6092,7 @@
         <v>20171115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2">
         <v>2286</v>
@@ -5896,10 +6102,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -5908,7 +6114,7 @@
         <v>20171116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2">
         <v>1754</v>
@@ -5918,10 +6124,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -5930,7 +6136,7 @@
         <v>20171117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2">
         <v>993</v>
@@ -5940,10 +6146,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -5952,7 +6158,7 @@
         <v>20171118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2">
         <v>1721</v>
@@ -5962,10 +6168,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -5974,7 +6180,7 @@
         <v>20171119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2">
         <v>1361</v>
@@ -5984,10 +6190,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -5996,7 +6202,7 @@
         <v>20171120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2">
         <v>2142</v>
@@ -6006,10 +6212,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -6018,7 +6224,7 @@
         <v>20171121</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2">
         <v>1139</v>
@@ -6028,10 +6234,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -6040,7 +6246,7 @@
         <v>20171122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2">
         <v>1383</v>
@@ -6050,10 +6256,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -6062,7 +6268,7 @@
         <v>20171123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2">
         <v>1171</v>
@@ -6072,10 +6278,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -6084,7 +6290,7 @@
         <v>20171124</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -6094,13 +6300,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6108,7 +6314,7 @@
         <v>20171125</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2">
         <v>833</v>
@@ -6118,10 +6324,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -6130,7 +6336,7 @@
         <v>20171126</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -6140,13 +6346,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6154,7 +6360,7 @@
         <v>20171127</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2">
         <v>2879</v>
@@ -6164,10 +6370,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -6176,7 +6382,7 @@
         <v>20171128</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -6186,10 +6392,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -6198,7 +6404,7 @@
         <v>20171129</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -6208,10 +6414,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -6220,7 +6426,7 @@
         <v>20171130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2">
         <v>48</v>
@@ -6230,13 +6436,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6244,7 +6450,7 @@
         <v>20171201</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C23" s="2">
         <v>838</v>
@@ -6254,10 +6460,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -6266,7 +6472,7 @@
         <v>20171202</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24" s="2">
         <v>1410</v>
@@ -6276,10 +6482,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -6288,7 +6494,7 @@
         <v>20171203</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C25" s="2">
         <v>1269</v>
@@ -6298,13 +6504,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6312,7 +6518,7 @@
         <v>20171204</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C26" s="2">
         <v>1605</v>
@@ -6322,10 +6528,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -6334,7 +6540,7 @@
         <v>20171205</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" s="2">
         <v>4483</v>
@@ -6344,10 +6550,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -6356,7 +6562,7 @@
         <v>20171206</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C28" s="2">
         <v>2420</v>
@@ -6366,10 +6572,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -6378,7 +6584,7 @@
         <v>20171207</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2">
         <v>2176</v>
@@ -6388,10 +6594,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -6400,7 +6606,7 @@
         <v>20171208</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C30" s="2">
         <v>1365</v>
@@ -6410,10 +6616,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -6422,7 +6628,7 @@
         <v>20171209</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C31" s="2">
         <v>3143</v>
@@ -6432,10 +6638,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -6444,7 +6650,7 @@
         <v>20171210</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C32" s="2">
         <v>2000</v>
@@ -6454,13 +6660,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6468,7 +6674,7 @@
         <v>20171211</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C33" s="2">
         <v>2608</v>
@@ -6478,13 +6684,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6492,7 +6698,7 @@
         <v>20171212</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C34" s="2">
         <v>1981</v>
@@ -6502,13 +6708,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6516,7 +6722,7 @@
         <v>20171213</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C35" s="2">
         <v>1979</v>
@@ -6526,13 +6732,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6540,7 +6746,7 @@
         <v>20171214</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -6550,13 +6756,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6564,7 +6770,7 @@
         <v>20171215</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C37" s="2">
         <v>1575</v>
@@ -6574,10 +6780,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -6586,7 +6792,7 @@
         <v>20171216</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C38" s="2">
         <v>1521</v>
@@ -6596,13 +6802,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6610,7 +6816,7 @@
         <v>20171217</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C39" s="2">
         <v>2142</v>
@@ -6620,13 +6826,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6634,7 +6840,7 @@
         <v>20171218</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C40" s="2">
         <v>2881</v>
@@ -6644,13 +6850,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6658,7 +6864,7 @@
         <v>20171219</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C41" s="2">
         <v>1714</v>
@@ -6668,13 +6874,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6682,7 +6888,7 @@
         <v>20171220</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C42" s="2">
         <v>3898</v>
@@ -6692,13 +6898,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6706,7 +6912,7 @@
         <v>20171221</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C43" s="2">
         <v>4301</v>
@@ -6716,10 +6922,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -6728,7 +6934,7 @@
         <v>20171222</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C44" s="2">
         <v>3107</v>
@@ -6738,10 +6944,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -6750,7 +6956,7 @@
         <v>20171223</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C45" s="2">
         <v>1368</v>
@@ -6760,13 +6966,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6774,7 +6980,7 @@
         <v>20171224</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C46" s="2">
         <v>2119</v>
@@ -6784,13 +6990,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6798,7 +7004,7 @@
         <v>20171225</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C47" s="2">
         <v>2642</v>
@@ -6808,13 +7014,13 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6822,7 +7028,7 @@
         <v>20171226</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C48" s="2">
         <v>3305</v>
@@ -6834,13 +7040,13 @@
         <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6848,7 +7054,7 @@
         <v>20171227</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C49" s="2">
         <v>2533</v>
@@ -6860,13 +7066,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6874,7 +7080,7 @@
         <v>20171228</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2">
         <v>3674</v>
@@ -6886,13 +7092,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6900,7 +7106,7 @@
         <v>20171229</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C51" s="2">
         <v>6646</v>
@@ -6912,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6926,7 +7132,7 @@
         <v>20171230</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C52" s="2">
         <v>2057</v>
@@ -6938,13 +7144,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6952,7 +7158,7 @@
         <v>20171231</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C53" s="2">
         <v>3936</v>
@@ -6964,17 +7170,24 @@
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54">
+        <f>SUM(C2:C53)</f>
+        <v>99917</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>